--- a/docs/data/valdeltagande.xlsx
+++ b/docs/data/valdeltagande.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WILIDF17\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svenskidrott-my.sharepoint.com/personal/william_lind_rfsisu_se/Documents/Dokument/GitHub/svenskstatistik-demokrati/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C617EE5B-8DFA-4598-931A-C9D78358875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C617EE5B-8DFA-4598-931A-C9D78358875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622ADC8E-AE73-47CC-8CE2-A5CB292470B1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>statistikdatabasen.scb.se</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -36,6 +36,110 @@
           </rPr>
           <t xml:space="preserve">Vid 1985 års val samverkade centerpartiet med Kristdemokratiska Samlingspartiet under beteckningen centern. KDS röster redovisades således under centerpartiet.
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{5661840E-3509-4D38-9ED9-93DD9C440B4F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Landstingsfullmäktigvalet i Västra Götalands län överklagades och omval utlystes. Omvalet genomfördes den 15 maj 2011. Här återges valdeltagandet vid det ordinarie valet 2010. Valdeltagandet i omvalet till landstingsfullmäktige i Västra Götaland 2011 var 44,1 procent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CF217471-840C-4B86-965D-4879027B235D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valet i kommunfullmäktige i Hallsberg överklagades och omval utlystes. Omvalet genomfördes den 1 juni 1980. Här återges valdeltagandet vid det ordinarie valet 1979. Valdeltagandet i omvalet 1980 blev för Hallsberg 76,1 procent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{1AAE76D1-42BD-4268-999C-5B3E5B98CACC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valen till kommunfullmäktige i Borgholm och Åre överklagades och omval utlystes. Omvalen genomfördes den 16 mars 1986. Här återges valdeltagandet vid de ordinarie valen i Borgholm och Åre 1985. Valdeltagandet i omvalen 1986 blev i Borgholm 71,4 procent och i Åre 77,0 procent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{7B73966C-87DD-4994-BEB3-1DD04B7E534D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valet i kommunfullmäktige i Orsa överklagades och omval utlystes. Omvalet genomfördes den 16 mars 2003. Här återges valdeltagandet vid det ordinarie valet 2002. Valdeltagandet i omvalet till kommunfullmäktige i Orsa 2003 blev 79,7 procent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{AEFEC53D-762F-4116-9DC5-52FF7457C466}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Redovisade uppgifter har reviderats efter omräkning av röster i kommunfullmäktigvalen 2006 i Upplands-Väsby, Värmdö och Klippans kommun. För mer information om Valprövningsnämndens beslut se Valmyndigheten (www.val.se).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{FFA7D582-43DA-4B69-9E70-7C6BE3EA7CB2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kommunfullmäktigvalet i Örebro överklagades och omval utlystes i den nordöstra valkretsen. Omvalet genomfördes den 15 maj 2011. Här återges valdeltagandet vid det ordinarie valet 2010. Valdeltagandet i Örebro med hänsyn tagen till omvalet i Örebros nordöstra valkrets 2011 var 78,4 procent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{34367A83-C540-4327-876E-65449687FB27}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Uppdatering 2019-11-11: Kommunfullmäktigevalet i Båstad överklagades och omval ägde rum den 10 maj 2015. De uppgifter som här redovisas avser det ordinarie valet. Valdeltagandet vid omvalet i Båstad var 63,6 procent.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{08764815-7867-4E12-AD7D-8D678E2F848F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Uppdatering 2019-06-18: Valet till kommunfullmäktige i Falun överklagades och omval ägde rum den 7 april 2019. De uppgifter som här redovisas avser det ordinarie valet. Valdeltagandet vid omvalet i Falun var 61,0 procent.</t>
         </r>
       </text>
     </comment>
@@ -44,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1973</t>
   </si>
@@ -89,6 +193,18 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Riksdag</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Kommun</t>
   </si>
 </sst>
 </file>
@@ -445,109 +561,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="15" width="9.1796875" customWidth="1"/>
+    <col min="2" max="16" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
         <v>90.8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>91.8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>90.7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>91.4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>89.9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>86</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>86.7</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>86.8</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>81.400000000000006</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>80.099999999999994</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>82</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>84.6</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>85.8</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>87.2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>84.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>90.7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>89.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2">
+        <v>84.2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2">
+        <v>84.3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="K3" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>78.8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>81</v>
+      </c>
+      <c r="N3" s="2">
+        <v>82.4</v>
+      </c>
+      <c r="O3" s="2">
+        <v>83.7</v>
+      </c>
+      <c r="P3" s="2">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>90.4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2">
+        <v>89.6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>87.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2">
+        <v>84.3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>84.4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="K4" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="L4" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="M4" s="2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="N4" s="2">
+        <v>82.8</v>
+      </c>
+      <c r="O4" s="2">
+        <v>84.1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>80.5</v>
       </c>
     </row>
   </sheetData>
